--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/105.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/105.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1860112740053443</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.482359199707724</v>
+        <v>-2.491242084443883</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1257970164572098</v>
+        <v>0.1173178992090583</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2596667520407954</v>
+        <v>-0.2705770131064646</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1775642239834188</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.588608601438589</v>
+        <v>-2.599184016052724</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06837298474138014</v>
+        <v>0.06079350049143203</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2806657110205542</v>
+        <v>-0.2908684641011958</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.18507784328168</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.720204476733073</v>
+        <v>-2.722359326484024</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07729368455949724</v>
+        <v>0.06659018660324557</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2914674062057623</v>
+        <v>-0.3024368295770762</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2141920016996072</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.88106434609793</v>
+        <v>-2.882519006911973</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04066733800009961</v>
+        <v>0.02819568000195532</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2989084384620886</v>
+        <v>-0.3101364682003436</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2612801316832673</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.963115754899492</v>
+        <v>-2.963863517649185</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08816796030523837</v>
+        <v>0.07740895956740262</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2922163887968089</v>
+        <v>-0.3013786172029183</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.3110740851464014</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.8507159130643</v>
+        <v>-2.853621575168328</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1494570593496204</v>
+        <v>0.1363608425784862</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2932739912502901</v>
+        <v>-0.3043873559013164</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.3419477259481669</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.667768986232366</v>
+        <v>-2.66814713705195</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1855747320646102</v>
+        <v>0.1745071114643399</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3256778569645609</v>
+        <v>-0.3400872329527338</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3389410753617142</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.463405304757101</v>
+        <v>-2.462027493948328</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2050586480833269</v>
+        <v>0.1976743384499382</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3380622963059302</v>
+        <v>-0.3490176915016788</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2966462413718119</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.05511342516977</v>
+        <v>-2.050941567740813</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2462935552762329</v>
+        <v>0.2383151829036915</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3008254191491078</v>
+        <v>-0.3096314538799962</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2176912098892178</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.686419425678953</v>
+        <v>-1.683120364738422</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2314273487011757</v>
+        <v>0.225359857808886</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2684910843919863</v>
+        <v>-0.2720475318581042</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1069980222824903</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.25416193294016</v>
+        <v>-1.253772803548395</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1600782180145111</v>
+        <v>0.1535453576458627</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2221590701034968</v>
+        <v>-0.2249494571996191</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.02557613949878624</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.748379722460742</v>
+        <v>-0.7504516229996552</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0847963188041751</v>
+        <v>0.0793631454157034</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1871788994506421</v>
+        <v>-0.1881285459443389</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1634824130709761</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.3352517818274752</v>
+        <v>-0.3422506215931591</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.06874084291564377</v>
+        <v>-0.07743831176607108</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1340663969987445</v>
+        <v>-0.1368031110753131</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2938831855010821</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1141511910553824</v>
+        <v>0.1025602585144623</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2905842410658311</v>
+        <v>-0.2952409854328026</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.0618700864920769</v>
+        <v>-0.06769543887569759</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4182281168762829</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5832253256047183</v>
+        <v>0.5719826577702214</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4106489560457166</v>
+        <v>-0.4119047827191408</v>
       </c>
       <c r="G16" t="n">
-        <v>0.001690357152514966</v>
+        <v>-0.00134460813498337</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.543139887008859</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9807051413553369</v>
+        <v>0.9690330893644094</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5803984192741756</v>
+        <v>-0.5767858591057968</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04678118286382214</v>
+        <v>0.0446751267670111</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.6703622810167816</v>
       </c>
       <c r="E18" t="n">
-        <v>1.417901771734436</v>
+        <v>1.402728165138297</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7992416176154393</v>
+        <v>-0.7941536593300069</v>
       </c>
       <c r="G18" t="n">
-        <v>0.110656345577616</v>
+        <v>0.1082239819187448</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.7973847583670156</v>
       </c>
       <c r="E19" t="n">
-        <v>1.745035166390963</v>
+        <v>1.731805986912298</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9856181284127271</v>
+        <v>-0.9754104959666716</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2168301171445644</v>
+        <v>0.2146966146172997</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.9183430174114198</v>
       </c>
       <c r="E20" t="n">
-        <v>2.053434237540498</v>
+        <v>2.043732229335466</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.153749472085773</v>
+        <v>-1.142689780454301</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3149504960957315</v>
+        <v>0.3099015727336111</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.030201903322629</v>
       </c>
       <c r="E21" t="n">
-        <v>2.275807656758779</v>
+        <v>2.268343447516737</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.416940002833389</v>
+        <v>-1.400221467163048</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3838654333614946</v>
+        <v>0.3772971975935948</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.128698017535025</v>
       </c>
       <c r="E22" t="n">
-        <v>2.534473795926277</v>
+        <v>2.524841928599072</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.692858968184059</v>
+        <v>-1.672811485460027</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4981663979461109</v>
+        <v>0.4921739272970612</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.2102892117233</v>
       </c>
       <c r="E23" t="n">
-        <v>2.715225008321918</v>
+        <v>2.706950824421154</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.968227175163625</v>
+        <v>-1.952027681989197</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6285131556946151</v>
+        <v>0.621263028610111</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.271657247080399</v>
       </c>
       <c r="E24" t="n">
-        <v>2.831084320235625</v>
+        <v>2.826979554081111</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.259310598300282</v>
+        <v>-2.236783178104593</v>
       </c>
       <c r="G24" t="n">
-        <v>0.733119431122321</v>
+        <v>0.7265627838472793</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.311405212284528</v>
       </c>
       <c r="E25" t="n">
-        <v>2.95047019350229</v>
+        <v>2.948874641011917</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.504480412732699</v>
+        <v>-2.483072806899519</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8375524890778305</v>
+        <v>0.8289562670597433</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.329446299520298</v>
       </c>
       <c r="E26" t="n">
-        <v>3.007281864858665</v>
+        <v>3.007001301347361</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.723034508673185</v>
+        <v>-2.705029040374905</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9396611393342531</v>
+        <v>0.9300573283581782</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.32649430166992</v>
       </c>
       <c r="E27" t="n">
-        <v>3.004570157529843</v>
+        <v>3.001487618429558</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.92872964698579</v>
+        <v>-2.912360595863226</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9878058378740379</v>
+        <v>0.9816358803080545</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.305380102524921</v>
       </c>
       <c r="E28" t="n">
-        <v>3.006123015572844</v>
+        <v>3.004638468645639</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.143391839087946</v>
+        <v>-3.130734155283394</v>
       </c>
       <c r="G28" t="n">
-        <v>1.030621659461075</v>
+        <v>1.026257067098266</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.267851185873599</v>
       </c>
       <c r="E29" t="n">
-        <v>2.999254088911307</v>
+        <v>2.997687812613418</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.298909108284827</v>
+        <v>-3.284878188076576</v>
       </c>
       <c r="G29" t="n">
-        <v>1.108907418004395</v>
+        <v>1.104626994694977</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.217344950343082</v>
       </c>
       <c r="E30" t="n">
-        <v>2.909555494664677</v>
+        <v>2.904523649081506</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.356847913051832</v>
+        <v>-3.342533684689232</v>
       </c>
       <c r="G30" t="n">
-        <v>1.09930177726629</v>
+        <v>1.096885881465691</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.155477600940356</v>
       </c>
       <c r="E31" t="n">
-        <v>2.847653425340163</v>
+        <v>2.843176607572832</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.430364396863321</v>
+        <v>-3.416908326892905</v>
       </c>
       <c r="G31" t="n">
-        <v>1.136464244100549</v>
+        <v>1.13726872947318</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.085041504094129</v>
       </c>
       <c r="E32" t="n">
-        <v>2.772556332094882</v>
+        <v>2.768136846871165</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.461872594063788</v>
+        <v>-3.452515496001457</v>
       </c>
       <c r="G32" t="n">
-        <v>1.097400654516866</v>
+        <v>1.09563127463362</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.007578061783388</v>
       </c>
       <c r="E33" t="n">
-        <v>2.59084510455404</v>
+        <v>2.589881429884778</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.430154889110858</v>
+        <v>-3.421089333132013</v>
       </c>
       <c r="G33" t="n">
-        <v>1.065645134481978</v>
+        <v>1.064039823260778</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.9262782233882814</v>
       </c>
       <c r="E34" t="n">
-        <v>2.52897597094607</v>
+        <v>2.531670600495943</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.250379549798015</v>
+        <v>-3.243621323739308</v>
       </c>
       <c r="G34" t="n">
-        <v>1.01028019497085</v>
+        <v>1.011043205737462</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.8429994326491779</v>
       </c>
       <c r="E35" t="n">
-        <v>2.403601896475093</v>
+        <v>2.407171152275422</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.088895731580845</v>
+        <v>-3.080139405385112</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9783185217472218</v>
+        <v>0.978727168600643</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.7607401321936504</v>
       </c>
       <c r="E36" t="n">
-        <v>2.284511224815974</v>
+        <v>2.287688911541832</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.018468495997086</v>
+        <v>-3.004600424609527</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8927923948502253</v>
+        <v>0.8916121983407178</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6813470653579463</v>
       </c>
       <c r="E37" t="n">
-        <v>2.150002978290018</v>
+        <v>2.154110184127239</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.829813321551467</v>
+        <v>-2.817065369486756</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7856250625008543</v>
+        <v>0.7835568214860017</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6060046897434149</v>
       </c>
       <c r="E38" t="n">
-        <v>2.020539385681445</v>
+        <v>2.024873482010417</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.664845026508036</v>
+        <v>-2.651124250963912</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7162356069485812</v>
+        <v>0.7168266200843502</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5356373303973709</v>
       </c>
       <c r="E39" t="n">
-        <v>1.865055357161446</v>
+        <v>1.86892957330015</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.46384810716842</v>
+        <v>-2.450235897504757</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6509564068369134</v>
+        <v>0.6495267527706159</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4690510450082063</v>
       </c>
       <c r="E40" t="n">
-        <v>1.771960724586683</v>
+        <v>1.774890783517781</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.332119269166405</v>
+        <v>-2.312986667457495</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5691477464646963</v>
+        <v>0.5675503642122932</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4069273106928756</v>
       </c>
       <c r="E41" t="n">
-        <v>1.663591848504119</v>
+        <v>1.668722501236923</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.246013717626498</v>
+        <v>-2.228831032321152</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4940640714743034</v>
+        <v>0.4926331975666525</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3479146275800321</v>
       </c>
       <c r="E42" t="n">
-        <v>1.47174251947437</v>
+        <v>1.47281536994477</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.164659448158458</v>
+        <v>-2.149488891165704</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4656686044476209</v>
+        <v>0.4632197729304774</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2919814976680084</v>
       </c>
       <c r="E43" t="n">
-        <v>1.338941440922632</v>
+        <v>1.338826165914727</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.067499084352493</v>
+        <v>-2.048949566810554</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4390467867489216</v>
+        <v>0.4354586234076128</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2380796406313934</v>
       </c>
       <c r="E44" t="n">
-        <v>1.166529064019491</v>
+        <v>1.167486029561309</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.015029438293888</v>
+        <v>-1.993612073729879</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4175043884461802</v>
+        <v>0.4133880337988076</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.186627418767328</v>
       </c>
       <c r="E45" t="n">
-        <v>1.095886831397177</v>
+        <v>1.092617656569808</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.967118339373297</v>
+        <v>-1.946137068093164</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3836958754133586</v>
+        <v>0.3760529594130287</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1375541506119488</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9742369325784238</v>
+        <v>0.9712153855458139</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.943416211954191</v>
+        <v>-1.921793914042796</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3410587605846089</v>
+        <v>0.3330742890053001</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.09128098958494987</v>
       </c>
       <c r="E47" t="n">
-        <v>0.8460078194195888</v>
+        <v>0.8405197531702098</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.929591139974343</v>
+        <v>-1.90831344724531</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3053662025813125</v>
+        <v>0.2982124429637346</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.04805341034069745</v>
       </c>
       <c r="E48" t="n">
-        <v>0.7578931891704737</v>
+        <v>0.7523959741109434</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.982557261463821</v>
+        <v>-1.96184557512281</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2822691164735403</v>
+        <v>0.2754733802932134</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.007430081365073998</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7312799103612488</v>
+        <v>0.7276649105101631</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.937273090897985</v>
+        <v>-1.915903300146763</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2675480710195492</v>
+        <v>0.2615190051298946</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.03045774147638242</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6709477768586845</v>
+        <v>0.6728190134949475</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.930078466595065</v>
+        <v>-1.911140429582037</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2229220048639241</v>
+        <v>0.2147246709684301</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.06629119912638953</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5996846449874413</v>
+        <v>0.6012100565999883</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.984513277074152</v>
+        <v>-1.968391853746347</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1942587826601491</v>
+        <v>0.1889170973731896</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1004981244182927</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4898415906291766</v>
+        <v>0.4904887164672063</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.938111121907836</v>
+        <v>-1.922876523244023</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1375154224195702</v>
+        <v>0.1311039362655947</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1338099837650707</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4539361703096952</v>
+        <v>0.4531646206536089</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.946025452609319</v>
+        <v>-1.932160735785482</v>
       </c>
       <c r="G53" t="n">
-        <v>0.145037574125904</v>
+        <v>0.1378832045876493</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1665823652530613</v>
       </c>
       <c r="E54" t="n">
-        <v>0.346759689150173</v>
+        <v>0.3428165519749968</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.895030594747091</v>
+        <v>-1.882696778821892</v>
       </c>
       <c r="G54" t="n">
-        <v>0.107995871585641</v>
+        <v>0.1016886818673893</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1988601173513936</v>
       </c>
       <c r="E55" t="n">
-        <v>0.3189765824829454</v>
+        <v>0.3182733439426549</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.907296709477171</v>
+        <v>-1.897054311552541</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1226425067170688</v>
+        <v>0.116626249161626</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2306300561298998</v>
       </c>
       <c r="E56" t="n">
-        <v>0.283463341158613</v>
+        <v>0.2830388363675964</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.856929459991316</v>
+        <v>-1.848405818533762</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0893182707015852</v>
+        <v>0.08377165206723836</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2620515669329468</v>
       </c>
       <c r="E57" t="n">
-        <v>0.2735618888922851</v>
+        <v>0.2740193293998461</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.853674313339512</v>
+        <v>-1.849904393636532</v>
       </c>
       <c r="G57" t="n">
-        <v>0.06476896346247586</v>
+        <v>0.05925406070331993</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.292423632695415</v>
       </c>
       <c r="E58" t="n">
-        <v>0.2166074960975514</v>
+        <v>0.2136005871611835</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.845683742553436</v>
+        <v>-1.845397079835364</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03753417548364484</v>
+        <v>0.03097691828792646</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3214477902353386</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1895806910694915</v>
+        <v>0.1859498332808103</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.877603941171045</v>
+        <v>-1.881361052539813</v>
       </c>
       <c r="G59" t="n">
-        <v>0.01704145066558684</v>
+        <v>0.01083306809696835</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3485662869886295</v>
       </c>
       <c r="E60" t="n">
-        <v>0.180997277385616</v>
+        <v>0.1781373593323444</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.812619942666924</v>
+        <v>-1.816558200476686</v>
       </c>
       <c r="G60" t="n">
-        <v>0.007792613523379286</v>
+        <v>0.002566813165001926</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3732630592749377</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1491679569488419</v>
+        <v>0.1456090698000169</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.840887936272166</v>
+        <v>-1.842495687176074</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.01062760083508881</v>
+        <v>-0.01729098422856135</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3952186923459499</v>
       </c>
       <c r="E62" t="n">
-        <v>0.1723516517927123</v>
+        <v>0.1667483105354279</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.790876270540855</v>
+        <v>-1.791522786458208</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.037733695551126</v>
+        <v>-0.04268991097038072</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4140414531906805</v>
       </c>
       <c r="E63" t="n">
-        <v>0.1209877919210514</v>
+        <v>0.1170104991879773</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.834831423952058</v>
+        <v>-1.832861990086838</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.05957007562005998</v>
+        <v>-0.06724165789219705</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4296632629977023</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1200222874897592</v>
+        <v>0.1178277928948197</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.799540193754061</v>
+        <v>-1.797726289661413</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.04040270843257551</v>
+        <v>-0.04521803217550142</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4415167510223074</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1157833387863602</v>
+        <v>0.1132045941650694</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.821325340486149</v>
+        <v>-1.815016321005867</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.0779042911631066</v>
+        <v>-0.08432797573061714</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4493539135780507</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1120061000352595</v>
+        <v>0.1103837110351096</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.837182668160921</v>
+        <v>-1.831716559055905</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.07026564460751392</v>
+        <v>-0.07643133272876003</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4527292275013962</v>
       </c>
       <c r="E67" t="n">
-        <v>0.1204809478386737</v>
+        <v>0.1171367527680641</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.797812898397511</v>
+        <v>-1.791355058272103</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.08825830457158163</v>
+        <v>-0.0944855946811793</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4514027507477942</v>
       </c>
       <c r="E68" t="n">
-        <v>0.03649731033317314</v>
+        <v>0.0276979847297289</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.830774841531006</v>
+        <v>-1.823289285065277</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.124737660247883</v>
+        <v>-0.1329825679561632</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.444780190307648</v>
       </c>
       <c r="E69" t="n">
-        <v>0.01222978644672141</v>
+        <v>0.003232846544010805</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.851309040955083</v>
+        <v>-1.843010460227249</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.1251255697982947</v>
+        <v>-0.1345628724296174</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4333971166366968</v>
       </c>
       <c r="E70" t="n">
-        <v>0.08224197100995423</v>
+        <v>0.07340422040387487</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.791394093195414</v>
+        <v>-1.786104251165979</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.1208890607776027</v>
+        <v>-0.1290827351490361</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4178484179988214</v>
       </c>
       <c r="E71" t="n">
-        <v>0.09182931412775695</v>
+        <v>0.08269636191413153</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.77362588404039</v>
+        <v>-1.767424210599216</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.165568190032105</v>
+        <v>-0.1720522567466136</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3986641407478401</v>
       </c>
       <c r="E72" t="n">
-        <v>0.1459555047444099</v>
+        <v>0.1358149635727967</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.724766358467457</v>
+        <v>-1.719491154534263</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1600886626722004</v>
+        <v>-0.1683408894286016</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3760710711047449</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1790418716959618</v>
+        <v>0.1688433880600575</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.685616770068352</v>
+        <v>-1.679397408927552</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1398935791443955</v>
+        <v>-0.1472919169533494</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3499400412480971</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2760503652534171</v>
+        <v>0.2645228644628788</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.608827146945095</v>
+        <v>-1.601750237332787</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.1651058701591299</v>
+        <v>-0.1742290636419274</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3206113292315489</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3742201477794008</v>
+        <v>0.3638014827791904</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.552868144694814</v>
+        <v>-1.543662001999979</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.147343760210873</v>
+        <v>-0.155419719891694</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2881154274565672</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4747356852281575</v>
+        <v>0.4662925532999341</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.54874264123729</v>
+        <v>-1.539914649362039</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.1613542480764526</v>
+        <v>-0.1691032902745367</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2529201407785404</v>
       </c>
       <c r="E77" t="n">
-        <v>0.6015436832101695</v>
+        <v>0.5923393702773645</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.472828254285167</v>
+        <v>-1.462689542875584</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.1832918749777268</v>
+        <v>-0.1915745977679654</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2149792090064727</v>
       </c>
       <c r="E78" t="n">
-        <v>0.7734589747617608</v>
+        <v>0.7668571933566398</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.426363887209823</v>
+        <v>-1.417826217576703</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.180797909330504</v>
+        <v>-0.1897631333580237</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1747800204531529</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9802373321962712</v>
+        <v>0.9716960030390913</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.367073498223144</v>
+        <v>-1.360161267193558</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.1607937309745212</v>
+        <v>-0.1703926625851821</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1324213015385598</v>
       </c>
       <c r="E80" t="n">
-        <v>1.149765394219071</v>
+        <v>1.144335270433983</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.337893063285487</v>
+        <v>-1.333805374909921</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1683530878421366</v>
+        <v>-0.1776202226046466</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.08875024246392828</v>
       </c>
       <c r="E81" t="n">
-        <v>1.324183800228036</v>
+        <v>1.317336830710862</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.285829624397596</v>
+        <v>-1.282527513853682</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.108019124577542</v>
+        <v>-0.1142244575427767</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.04430535117278517</v>
       </c>
       <c r="E82" t="n">
-        <v>1.558425665895158</v>
+        <v>1.54942628630974</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.301969955266379</v>
+        <v>-1.301147172273446</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.07514805962488212</v>
+        <v>-0.08178338666722425</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.0006202189273157205</v>
       </c>
       <c r="E83" t="n">
-        <v>1.747133293518977</v>
+        <v>1.74338533096036</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.218230286031578</v>
+        <v>-1.217083025238615</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.05995981493250199</v>
+        <v>-0.06698305152525587</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.04117142353665636</v>
       </c>
       <c r="E84" t="n">
-        <v>1.959771158895006</v>
+        <v>1.95785173852528</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.131677052714938</v>
+        <v>-1.130737774872746</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.07894176623425504</v>
+        <v>-0.08555269644952725</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.07970833593291128</v>
       </c>
       <c r="E85" t="n">
-        <v>2.067866180593711</v>
+        <v>2.067640509943314</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.050389874521341</v>
+        <v>-1.052899698106159</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.0498424507466052</v>
+        <v>-0.0557464828975264</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.1135807901312777</v>
       </c>
       <c r="E86" t="n">
-        <v>2.174669390299063</v>
+        <v>2.175091455407373</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9826075599522986</v>
+        <v>-0.9874783864768086</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.05569646940203306</v>
+        <v>-0.06099119079688295</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1415877092706956</v>
       </c>
       <c r="E87" t="n">
-        <v>2.301928119661192</v>
+        <v>2.303287022928986</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8488068214113702</v>
+        <v>-0.8493819766095436</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.05496273482790515</v>
+        <v>-0.05960545101931136</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1623191754322206</v>
       </c>
       <c r="E88" t="n">
-        <v>2.388528316869941</v>
+        <v>2.38874422878951</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7760548731681851</v>
+        <v>-0.7732041039250647</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.03791240230941318</v>
+        <v>-0.04483561191118039</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1751094874799202</v>
       </c>
       <c r="E89" t="n">
-        <v>2.417954549840328</v>
+        <v>2.420497919062368</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7268611110643938</v>
+        <v>-0.7203130026788266</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.03258047575328166</v>
+        <v>-0.03994221832163072</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.17928352593433</v>
       </c>
       <c r="E90" t="n">
-        <v>2.436596165404456</v>
+        <v>2.432684134183794</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6466754496130033</v>
+        <v>-0.638304898245313</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.04177137043119815</v>
+        <v>-0.04769065059903805</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1749758166880835</v>
       </c>
       <c r="E91" t="n">
-        <v>2.379179452736747</v>
+        <v>2.375155196111564</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5025676615557094</v>
+        <v>-0.4954999007535529</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.02994012914363932</v>
+        <v>-0.03760866181239265</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1622064411046955</v>
       </c>
       <c r="E92" t="n">
-        <v>2.315472018209059</v>
+        <v>2.315742822989535</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4257005785065052</v>
+        <v>-0.4178551688414949</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.02416601009686545</v>
+        <v>-0.03241823685326668</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1412818336056596</v>
       </c>
       <c r="E93" t="n">
-        <v>2.233096131607466</v>
+        <v>2.226071065252682</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3369083263855229</v>
+        <v>-0.33044194737064</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.02317976836256384</v>
+        <v>-0.0309678454839598</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1130723516355926</v>
       </c>
       <c r="E94" t="n">
-        <v>2.121195204885854</v>
+        <v>2.117106906589612</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2524007670186957</v>
+        <v>-0.2469901606952637</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.07734499390252862</v>
+        <v>-0.08281293276957497</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.07937806999311711</v>
       </c>
       <c r="E95" t="n">
-        <v>1.974907560329862</v>
+        <v>1.969206021843621</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.175358026814588</v>
+        <v>-0.1723547774022806</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.08504524244647285</v>
+        <v>-0.09001609596196954</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.04338324359712954</v>
       </c>
       <c r="E96" t="n">
-        <v>1.810826089950423</v>
+        <v>1.802873944166982</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.06756186624748978</v>
+        <v>-0.06475318153106496</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.07592265888435215</v>
+        <v>-0.08048669530845787</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.009225278815017637</v>
       </c>
       <c r="E97" t="n">
-        <v>1.680351858780478</v>
+        <v>1.671486051823269</v>
       </c>
       <c r="F97" t="n">
-        <v>0.003750669198569906</v>
+        <v>0.005252903825400373</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.07902776504967651</v>
+        <v>-0.08390469078095399</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.02015586320240741</v>
       </c>
       <c r="E98" t="n">
-        <v>1.505980416663623</v>
+        <v>1.499858642831102</v>
       </c>
       <c r="F98" t="n">
-        <v>0.04074601776740011</v>
+        <v>0.04467451684633435</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1017003463664321</v>
+        <v>-0.1064205224837853</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.04235551692977109</v>
       </c>
       <c r="E99" t="n">
-        <v>1.417146689936621</v>
+        <v>1.411428073671432</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08824785991389236</v>
+        <v>0.08912553576773281</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09217094571292042</v>
+        <v>-0.09782308062434467</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.05864861306227044</v>
       </c>
       <c r="E100" t="n">
-        <v>1.278780085209557</v>
+        <v>1.272469235967245</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1303506842298108</v>
+        <v>0.1296639135477925</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1216465822581238</v>
+        <v>-0.1290845649110664</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.07027020530605348</v>
       </c>
       <c r="E101" t="n">
-        <v>1.200932859632819</v>
+        <v>1.195304511627788</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1537466314691895</v>
+        <v>0.1565510467408771</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1697522458745966</v>
+        <v>-0.1741997874494435</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.08222456684585325</v>
       </c>
       <c r="E102" t="n">
-        <v>1.112198549976128</v>
+        <v>1.112737719854373</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1730780673187192</v>
+        <v>0.1749401551448311</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1717942603003491</v>
+        <v>-0.1775183658516297</v>
       </c>
     </row>
   </sheetData>
